--- a/src/main/resources/config/Ship From.xlsx
+++ b/src/main/resources/config/Ship From.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peachtree\Dropbox\Home Depot Order Shipment\Web Service\CommerceHub Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2219FBCC-3BCC-4704-8B79-F0B1321219FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Ship From" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>Shipfrom_Code</t>
   </si>
@@ -31,18 +30,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Phone_No</t>
-  </si>
-  <si>
     <t>NMFC</t>
   </si>
   <si>
@@ -55,12 +42,6 @@
     <t>6480 Jimmy Carter Blvd</t>
   </si>
   <si>
-    <t>Norcross</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
     <t>770-446-8136</t>
   </si>
   <si>
@@ -73,18 +54,12 @@
     <t>202 N Georgia Ave</t>
   </si>
   <si>
-    <t>Bremen</t>
-  </si>
-  <si>
     <t>678-821-3505</t>
   </si>
   <si>
     <t>BOSS</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
     <t>800-780-2677</t>
   </si>
   <si>
@@ -103,12 +78,6 @@
     <t>140 Seaview Dr</t>
   </si>
   <si>
-    <t>Secaucus</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
     <t>201-865-9999</t>
   </si>
   <si>
@@ -119,9 +88,6 @@
   </si>
   <si>
     <t>1208 N Independence Blvd</t>
-  </si>
-  <si>
-    <t>Romeoville</t>
   </si>
   <si>
     <t>Emails</t>
@@ -224,82 +190,120 @@
     <t>6689 Peachtree Industrial Blvd Ste B</t>
   </si>
   <si>
-    <t>Peachtree Corners</t>
-  </si>
-  <si>
     <t>UPS Shipment Only</t>
   </si>
   <si>
     <t>3 Sperry Road</t>
   </si>
   <si>
-    <t>FAIRFIELD</t>
-  </si>
-  <si>
-    <t>07004</t>
-  </si>
-  <si>
-    <t>07096</t>
-  </si>
-  <si>
     <t>CHGO</t>
   </si>
   <si>
     <t>Chigo</t>
   </si>
   <si>
-    <t>,City of Industry</t>
-  </si>
-  <si>
     <t>17009 Green Drive,Unit A</t>
   </si>
   <si>
+    <t>simon@chigogroup.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact </t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>Kun</t>
+  </si>
+  <si>
+    <t>Lotus Seat</t>
+  </si>
+  <si>
+    <t>Dealer Cabinetry</t>
+  </si>
+  <si>
+    <t>City/State/Zip</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bremen GA 30110</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norcross GA 30071</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romeoville IL 60446</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norcross GA 30071</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secaucus NJ '07096</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norcross GA 30071</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peachtree Corners GA 30092</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peachtree Corners GA 30092</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peachtree Corners GA 30092</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>CA</t>
-  </si>
-  <si>
-    <t>simon@chigogroup.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact </t>
-  </si>
-  <si>
-    <t>Cindy</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Kathy</t>
-  </si>
-  <si>
-    <t>Kun</t>
-  </si>
-  <si>
-    <t>Lotus Seat</t>
-  </si>
-  <si>
-    <t>Dealer Cabinetry</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIRFIELD NJ 07004</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>,City of Industry CA 91745</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone_No</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +311,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -315,7 +319,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -323,7 +327,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,35 +335,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -367,7 +371,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -375,14 +379,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,14 +394,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -405,7 +409,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -413,21 +417,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -442,14 +446,14 @@
       <i/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -458,6 +462,13 @@
       <color rgb="FF201F1E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -935,49 +946,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -993,7 +1004,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1068,23 +1079,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1120,23 +1114,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1312,39 +1289,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1353,574 +1328,487 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>130325</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9736415178</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9736415178</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9736415178</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="G11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9736415178</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>61</v>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="13" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30071</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
-        <v>30110</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2">
-        <v>60446</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1">
-        <v>130325</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30071</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1">
-        <v>30071</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30092</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="1">
-        <v>9736415178</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>30092</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="1">
-        <v>9736415178</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1">
-        <v>30092</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="1">
-        <v>9736415178</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1">
-        <v>30092</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="1">
-        <v>9736415178</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="3" t="s">
-        <v>57</v>
+      <c r="I13" s="20"/>
+      <c r="J13" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
         <v>9736415178</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="3" t="s">
-        <v>57</v>
+      <c r="I14" s="20"/>
+      <c r="J14" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1">
-        <v>30092</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1">
         <v>9736415178</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="8" t="s">
-        <v>51</v>
+      <c r="I15" s="21"/>
+      <c r="J15" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="1">
-        <v>91745</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="18">
+        <v>82</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="18">
         <v>6268393736</v>
       </c>
-      <c r="K16" s="1">
+      <c r="I16" s="1">
         <v>1141125</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>78</v>
+      <c r="J16" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K8:K15"/>
+    <mergeCell ref="I8:I15"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L11" r:id="rId10" xr:uid="{ECD45ACE-AE6D-4276-920C-57A23A2674A3}"/>
-    <hyperlink ref="L14" r:id="rId11" xr:uid="{70D1880E-C472-4247-A8FC-6AC94E1A5030}"/>
-    <hyperlink ref="L16" r:id="rId12" xr:uid="{D90B7CEB-3411-46B2-814D-A0DE503C5596}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
+    <hyperlink ref="J5" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J8" r:id="rId6"/>
+    <hyperlink ref="J9" r:id="rId7"/>
+    <hyperlink ref="J13" r:id="rId8"/>
+    <hyperlink ref="J15" r:id="rId9"/>
+    <hyperlink ref="J11" r:id="rId10"/>
+    <hyperlink ref="J14" r:id="rId11"/>
+    <hyperlink ref="J16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId13"/>
